--- a/PythonClass/WQ.xlsx
+++ b/PythonClass/WQ.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757691f4f86b2132/Documents/GitHub/bsrvp.github.io/PythonClass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49739B5F-F361-4579-AD4E-FAD521407401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{49739B5F-F361-4579-AD4E-FAD521407401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CCB9BE0-F523-4F42-915A-45CFFC510800}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA8892FB-FBA6-40F3-83CB-4A94D425CF78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BA8892FB-FBA6-40F3-83CB-4A94D425CF78}"/>
   </bookViews>
   <sheets>
     <sheet name="May 04" sheetId="1" r:id="rId1"/>
     <sheet name="June 04" sheetId="2" r:id="rId2"/>
-    <sheet name="July 04" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>TP</t>
   </si>
@@ -438,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F146301-0E56-4009-9BC0-CBB9DEFD88FC}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:P37"/>
     </sheetView>
   </sheetViews>
@@ -2201,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5B572-FEC0-4627-80B0-3C283EF709D1}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,10 +2802,10 @@
         <v>0.23759999999999998</v>
       </c>
       <c r="N13">
-        <v>44.4</v>
+        <v>43.070999999999998</v>
       </c>
       <c r="O13">
-        <v>25.01</v>
+        <v>10.085459999999999</v>
       </c>
       <c r="P13">
         <v>1.0914000000000001</v>
@@ -2841,7 +2840,7 @@
         <v>90.8</v>
       </c>
       <c r="J14">
-        <v>4.4439999999999991</v>
+        <v>5.444</v>
       </c>
       <c r="K14">
         <v>0.504</v>
@@ -2853,10 +2852,10 @@
         <v>0.67600000000000005</v>
       </c>
       <c r="N14">
-        <v>38.22</v>
+        <v>43.070999999999998</v>
       </c>
       <c r="O14">
-        <v>17.30883</v>
+        <v>10.085459999999999</v>
       </c>
       <c r="P14">
         <v>0.24440000000000009</v>
@@ -2903,7 +2902,7 @@
         <v>0.46800000000000008</v>
       </c>
       <c r="N15">
-        <v>60.123000000000005</v>
+        <v>43.070999999999998</v>
       </c>
       <c r="O15">
         <v>10.085459999999999</v>
@@ -2923,10 +2922,10 @@
         <v>0.35</v>
       </c>
       <c r="D16">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="E16">
-        <v>26.4</v>
+        <v>23.233333333333299</v>
       </c>
       <c r="F16">
         <v>25.4</v>
@@ -2973,10 +2972,10 @@
         <v>0.25</v>
       </c>
       <c r="D17">
-        <v>29.7</v>
+        <v>28.75</v>
       </c>
       <c r="E17">
-        <v>24.7</v>
+        <v>22.883333333333301</v>
       </c>
       <c r="F17">
         <v>52.8</v>
@@ -3006,7 +3005,7 @@
         <v>67.819199999999995</v>
       </c>
       <c r="O17">
-        <v>6.88</v>
+        <v>16.88</v>
       </c>
       <c r="P17">
         <v>0.33839999999999998</v>
@@ -3023,10 +3022,10 @@
         <v>0.25</v>
       </c>
       <c r="D18">
-        <v>30.5</v>
+        <v>28.8</v>
       </c>
       <c r="E18">
-        <v>27.7</v>
+        <v>22.533333333333299</v>
       </c>
       <c r="F18">
         <v>36.4</v>
@@ -3044,7 +3043,7 @@
         <v>10.335600000000001</v>
       </c>
       <c r="K18">
-        <v>1.9</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="L18">
         <v>3.9140000000000001</v>
@@ -3067,16 +3066,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.245</v>
       </c>
       <c r="D19">
-        <v>28.8</v>
+        <v>28.85</v>
       </c>
       <c r="E19">
-        <v>30.5</v>
+        <v>22.183333333333302</v>
       </c>
       <c r="F19">
         <v>108</v>
@@ -3094,7 +3093,7 @@
         <v>11.554399999999999</v>
       </c>
       <c r="K19">
-        <v>1.5096000000000001</v>
+        <v>1.653</v>
       </c>
       <c r="L19">
         <v>15.376499999999998</v>
@@ -3117,16 +3116,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="C20">
-        <v>1.25</v>
+        <v>0.22</v>
       </c>
       <c r="D20">
-        <v>31.2</v>
+        <v>28.9</v>
       </c>
       <c r="E20">
-        <v>24.5</v>
+        <v>21.8333333333333</v>
       </c>
       <c r="F20">
         <v>5.9</v>
@@ -3144,7 +3143,7 @@
         <v>5.8608000000000011</v>
       </c>
       <c r="K20">
-        <v>0.60799999999999998</v>
+        <v>1.71</v>
       </c>
       <c r="L20">
         <v>6.6120000000000001</v>
@@ -3167,16 +3166,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D21">
-        <v>31.4</v>
+        <v>28.95</v>
       </c>
       <c r="E21">
-        <v>27.2</v>
+        <v>21.483333333333299</v>
       </c>
       <c r="F21">
         <v>43.8</v>
@@ -3194,7 +3193,7 @@
         <v>6.8112000000000021</v>
       </c>
       <c r="K21">
-        <v>0.20899999999999999</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="L21">
         <v>6.593</v>
@@ -3217,10 +3216,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="C22">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="D22">
         <v>30.5</v>
@@ -3285,10 +3284,10 @@
         <v>7.04</v>
       </c>
       <c r="H23">
-        <v>8.16</v>
+        <v>8.0071428571428598</v>
       </c>
       <c r="I23">
-        <v>125.2</v>
+        <v>136.32571428571401</v>
       </c>
       <c r="J23">
         <v>4.7550799999999995</v>
@@ -3335,10 +3334,10 @@
         <v>5.5</v>
       </c>
       <c r="H24">
-        <v>8.77</v>
+        <v>8.0042857142857091</v>
       </c>
       <c r="I24">
-        <v>60.28</v>
+        <v>143.78714285714301</v>
       </c>
       <c r="J24">
         <v>3.6850000000000001</v>
@@ -3385,10 +3384,10 @@
         <v>6.6</v>
       </c>
       <c r="H25">
-        <v>8.07</v>
+        <v>8.0014285714285691</v>
       </c>
       <c r="I25">
-        <v>92.92</v>
+        <v>151.24857142857101</v>
       </c>
       <c r="J25">
         <v>5.0049999999999999</v>
@@ -3435,10 +3434,10 @@
         <v>7.1</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>7.99857142857143</v>
       </c>
       <c r="I26">
-        <v>92.92</v>
+        <v>158.71</v>
       </c>
       <c r="J26">
         <v>5.5</v>
@@ -3485,10 +3484,10 @@
         <v>6.3</v>
       </c>
       <c r="H27">
-        <v>7.9</v>
+        <v>7.9957142857142802</v>
       </c>
       <c r="I27">
-        <v>251.28</v>
+        <v>166.171428571429</v>
       </c>
       <c r="J27">
         <v>5.28</v>
@@ -3535,10 +3534,10 @@
         <v>7.3</v>
       </c>
       <c r="H28">
-        <v>7.92</v>
+        <v>7.9928571428571402</v>
       </c>
       <c r="I28">
-        <v>66.84</v>
+        <v>173.63285714285701</v>
       </c>
       <c r="J28">
         <v>8.1872000000000007</v>
@@ -3965,1775 +3964,6 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB0CE0-5334-4D0B-B9D0-FBA75D5755FF}">
-  <dimension ref="A1:P37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-      <c r="D2">
-        <v>30.7</v>
-      </c>
-      <c r="E2">
-        <v>23.2</v>
-      </c>
-      <c r="F2">
-        <v>29.7</v>
-      </c>
-      <c r="G2">
-        <v>7.9</v>
-      </c>
-      <c r="H2">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="I2">
-        <v>56.46</v>
-      </c>
-      <c r="J2">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="K2">
-        <v>0.32619999999999999</v>
-      </c>
-      <c r="L2">
-        <v>2.4376999999999995</v>
-      </c>
-      <c r="M2">
-        <v>1.0164</v>
-      </c>
-      <c r="N2">
-        <v>19.435559999999999</v>
-      </c>
-      <c r="O2">
-        <v>29.124550000000006</v>
-      </c>
-      <c r="P2">
-        <v>3.9872000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>30.6</v>
-      </c>
-      <c r="E3">
-        <v>22.2</v>
-      </c>
-      <c r="F3">
-        <v>108</v>
-      </c>
-      <c r="G3">
-        <v>6.6</v>
-      </c>
-      <c r="H3">
-        <v>8.14</v>
-      </c>
-      <c r="I3">
-        <v>159.80000000000001</v>
-      </c>
-      <c r="J3">
-        <v>3.69</v>
-      </c>
-      <c r="K3">
-        <v>0.37280000000000002</v>
-      </c>
-      <c r="L3">
-        <v>0.85929999999999951</v>
-      </c>
-      <c r="M3">
-        <v>0.83160000000000001</v>
-      </c>
-      <c r="N3">
-        <v>11.696120000000001</v>
-      </c>
-      <c r="O3">
-        <v>22.222200000000001</v>
-      </c>
-      <c r="P3">
-        <v>3.6736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2.5</v>
-      </c>
-      <c r="C4">
-        <v>0.15</v>
-      </c>
-      <c r="D4">
-        <v>30.7</v>
-      </c>
-      <c r="E4">
-        <v>23.7</v>
-      </c>
-      <c r="F4">
-        <v>97.8</v>
-      </c>
-      <c r="G4">
-        <v>9.1</v>
-      </c>
-      <c r="H4">
-        <v>8.16</v>
-      </c>
-      <c r="I4">
-        <v>116.03</v>
-      </c>
-      <c r="J4">
-        <v>5.49</v>
-      </c>
-      <c r="K4">
-        <v>0.30290000000000006</v>
-      </c>
-      <c r="L4">
-        <v>1.5285999999999995</v>
-      </c>
-      <c r="M4">
-        <v>0.32339999999999997</v>
-      </c>
-      <c r="N4">
-        <v>13.696199999999999</v>
-      </c>
-      <c r="O4">
-        <v>20.201999999999998</v>
-      </c>
-      <c r="P4">
-        <v>3.2704000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2.25</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>30.3</v>
-      </c>
-      <c r="E5">
-        <v>22.5</v>
-      </c>
-      <c r="F5">
-        <v>7.25</v>
-      </c>
-      <c r="G5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I5">
-        <v>26.7</v>
-      </c>
-      <c r="J5">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="K5">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="L5">
-        <v>1.3788999999999998</v>
-      </c>
-      <c r="M5">
-        <v>0.50819999999999999</v>
-      </c>
-      <c r="N5">
-        <v>15.652800000000001</v>
-      </c>
-      <c r="O5">
-        <v>30.808050000000009</v>
-      </c>
-      <c r="P5">
-        <v>4.0768000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1.6</v>
-      </c>
-      <c r="C6">
-        <v>1.5</v>
-      </c>
-      <c r="D6">
-        <v>30.4</v>
-      </c>
-      <c r="E6">
-        <v>22.3</v>
-      </c>
-      <c r="F6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G6">
-        <v>7.4</v>
-      </c>
-      <c r="H6">
-        <v>8.39</v>
-      </c>
-      <c r="I6">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J6">
-        <v>0.18</v>
-      </c>
-      <c r="K6">
-        <v>0.44269999999999998</v>
-      </c>
-      <c r="L6">
-        <v>1.9215999999999993</v>
-      </c>
-      <c r="M6">
-        <v>0.64679999999999993</v>
-      </c>
-      <c r="N6">
-        <v>10.956959999999999</v>
-      </c>
-      <c r="O6">
-        <v>35.858550000000001</v>
-      </c>
-      <c r="P6">
-        <v>3.2256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>23.8</v>
-      </c>
-      <c r="F7">
-        <v>19.8</v>
-      </c>
-      <c r="G7">
-        <v>6.1</v>
-      </c>
-      <c r="H7">
-        <v>8.19</v>
-      </c>
-      <c r="I7">
-        <v>42.09</v>
-      </c>
-      <c r="J7">
-        <v>2.25</v>
-      </c>
-      <c r="K7">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="L7">
-        <v>1.4187999999999998</v>
-      </c>
-      <c r="M7">
-        <v>0.5544</v>
-      </c>
-      <c r="N7">
-        <v>6.1741599999999988</v>
-      </c>
-      <c r="O7">
-        <v>32.491550000000011</v>
-      </c>
-      <c r="P7">
-        <v>3.4943999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2.8</v>
-      </c>
-      <c r="C8">
-        <v>0.75</v>
-      </c>
-      <c r="D8">
-        <v>30.2</v>
-      </c>
-      <c r="E8">
-        <v>23.4</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>6.93</v>
-      </c>
-      <c r="H8">
-        <v>8.07</v>
-      </c>
-      <c r="I8">
-        <v>80</v>
-      </c>
-      <c r="J8">
-        <v>12.048</v>
-      </c>
-      <c r="K8">
-        <v>0.11349999999999998</v>
-      </c>
-      <c r="L8">
-        <v>10.534499999999998</v>
-      </c>
-      <c r="M8">
-        <v>1.3795000000000002</v>
-      </c>
-      <c r="N8">
-        <v>8.908199999999999</v>
-      </c>
-      <c r="O8">
-        <v>38.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.75</v>
-      </c>
-      <c r="C9">
-        <v>0.75</v>
-      </c>
-      <c r="D9">
-        <v>30.5</v>
-      </c>
-      <c r="E9">
-        <v>21.3</v>
-      </c>
-      <c r="F9">
-        <v>1.02</v>
-      </c>
-      <c r="G9">
-        <v>7.41</v>
-      </c>
-      <c r="H9">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="I9">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="J9">
-        <v>11.711999999999998</v>
-      </c>
-      <c r="K9">
-        <v>0.15889999999999999</v>
-      </c>
-      <c r="L9">
-        <v>18.805099999999999</v>
-      </c>
-      <c r="M9">
-        <v>1.8244999999999998</v>
-      </c>
-      <c r="N9">
-        <v>20.316150000000004</v>
-      </c>
-      <c r="O9">
-        <v>66.778000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>30.7</v>
-      </c>
-      <c r="E11">
-        <v>23.4</v>
-      </c>
-      <c r="F11">
-        <v>6.89</v>
-      </c>
-      <c r="G11">
-        <v>5.64</v>
-      </c>
-      <c r="H11">
-        <v>8.16</v>
-      </c>
-      <c r="I11">
-        <v>62.28</v>
-      </c>
-      <c r="J11">
-        <v>9.4079999999999995</v>
-      </c>
-      <c r="K11">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="L11">
-        <v>9.1890000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.97900000000000031</v>
-      </c>
-      <c r="N11">
-        <v>7.5447000000000006</v>
-      </c>
-      <c r="O11">
-        <v>34.945999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.35</v>
-      </c>
-      <c r="C12">
-        <v>0.35</v>
-      </c>
-      <c r="D12">
-        <v>29.7</v>
-      </c>
-      <c r="E12">
-        <v>22.1</v>
-      </c>
-      <c r="F12">
-        <v>3.39</v>
-      </c>
-      <c r="G12">
-        <v>6.45</v>
-      </c>
-      <c r="H12">
-        <v>8.4</v>
-      </c>
-      <c r="I12">
-        <v>43.68</v>
-      </c>
-      <c r="J12">
-        <v>21.215999999999998</v>
-      </c>
-      <c r="K12">
-        <v>0.11349999999999998</v>
-      </c>
-      <c r="L12">
-        <v>10.0945</v>
-      </c>
-      <c r="M12">
-        <v>0.13350000000000012</v>
-      </c>
-      <c r="N12">
-        <v>13.453200000000002</v>
-      </c>
-      <c r="O12">
-        <v>71.622000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2.35</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>29.8</v>
-      </c>
-      <c r="E13">
-        <v>23.3</v>
-      </c>
-      <c r="F13">
-        <v>16.8</v>
-      </c>
-      <c r="G13">
-        <v>6.77</v>
-      </c>
-      <c r="H13">
-        <v>8.17</v>
-      </c>
-      <c r="I13">
-        <v>50.6</v>
-      </c>
-      <c r="J13">
-        <v>11.711999999999998</v>
-      </c>
-      <c r="K13">
-        <v>0.18160000000000001</v>
-      </c>
-      <c r="L13">
-        <v>8.1343999999999994</v>
-      </c>
-      <c r="M13">
-        <v>0.40050000000000008</v>
-      </c>
-      <c r="N13">
-        <v>11.180700000000002</v>
-      </c>
-      <c r="O13">
-        <v>55.706000000000017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2.35</v>
-      </c>
-      <c r="C14">
-        <v>0.35</v>
-      </c>
-      <c r="D14">
-        <v>30.4</v>
-      </c>
-      <c r="E14">
-        <v>23.4</v>
-      </c>
-      <c r="F14">
-        <v>7.55</v>
-      </c>
-      <c r="G14">
-        <v>7.25</v>
-      </c>
-      <c r="H14">
-        <v>8.23</v>
-      </c>
-      <c r="I14">
-        <v>57.08</v>
-      </c>
-      <c r="J14">
-        <v>7.5359999999999996</v>
-      </c>
-      <c r="K14">
-        <v>9.0800000000000006E-2</v>
-      </c>
-      <c r="L14">
-        <v>2.1091999999999991</v>
-      </c>
-      <c r="M14">
-        <v>0.5784999999999999</v>
-      </c>
-      <c r="N14">
-        <v>12.680550000000002</v>
-      </c>
-      <c r="O14">
-        <v>55.706000000000017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.75</v>
-      </c>
-      <c r="C15">
-        <v>0.75</v>
-      </c>
-      <c r="D15">
-        <v>29.7</v>
-      </c>
-      <c r="E15">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F15">
-        <v>8.58</v>
-      </c>
-      <c r="G15">
-        <v>5.48</v>
-      </c>
-      <c r="H15">
-        <v>8.02</v>
-      </c>
-      <c r="I15">
-        <v>65.16</v>
-      </c>
-      <c r="J15">
-        <v>9.36</v>
-      </c>
-      <c r="K15">
-        <v>0.18160000000000001</v>
-      </c>
-      <c r="L15">
-        <v>7.5623999999999976</v>
-      </c>
-      <c r="M15">
-        <v>2.5364999999999998</v>
-      </c>
-      <c r="N15">
-        <v>4.9540500000000005</v>
-      </c>
-      <c r="O15">
-        <v>38.406000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C16">
-        <v>0.15</v>
-      </c>
-      <c r="D16">
-        <v>30.2</v>
-      </c>
-      <c r="E16">
-        <v>23.2</v>
-      </c>
-      <c r="F16">
-        <v>155</v>
-      </c>
-      <c r="G16">
-        <v>6.4</v>
-      </c>
-      <c r="H16">
-        <v>8.19</v>
-      </c>
-      <c r="I16">
-        <v>170.4</v>
-      </c>
-      <c r="J16">
-        <v>5.9438000000000013</v>
-      </c>
-      <c r="K16">
-        <v>0.40599999999999997</v>
-      </c>
-      <c r="L16">
-        <v>2.8250000000000002</v>
-      </c>
-      <c r="M16">
-        <v>0.89100000000000013</v>
-      </c>
-      <c r="N16">
-        <v>14.2956</v>
-      </c>
-      <c r="O16">
-        <v>38.06</v>
-      </c>
-      <c r="P16">
-        <v>1.4383999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="E17">
-        <v>22.9</v>
-      </c>
-      <c r="F17">
-        <v>202</v>
-      </c>
-      <c r="G17">
-        <v>5.2</v>
-      </c>
-      <c r="H17">
-        <v>8.25</v>
-      </c>
-      <c r="I17">
-        <v>306.8</v>
-      </c>
-      <c r="J17">
-        <v>0.2104000000000002</v>
-      </c>
-      <c r="K17">
-        <v>0.75109999999999999</v>
-      </c>
-      <c r="L17">
-        <v>2.3721999999999999</v>
-      </c>
-      <c r="M17">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="N17">
-        <v>22.99</v>
-      </c>
-      <c r="O17">
-        <v>48.95900000000001</v>
-      </c>
-      <c r="P17">
-        <v>1.2759999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>30.5</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>408</v>
-      </c>
-      <c r="G18">
-        <v>3.5</v>
-      </c>
-      <c r="H18">
-        <v>8.24</v>
-      </c>
-      <c r="I18">
-        <v>313.10000000000002</v>
-      </c>
-      <c r="J18">
-        <v>1.2623999999999997</v>
-      </c>
-      <c r="K18">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="L18">
-        <v>1.3887999999999998</v>
-      </c>
-      <c r="M18">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="N18">
-        <v>17.723200000000002</v>
-      </c>
-      <c r="O18">
-        <v>32.69700000000001</v>
-      </c>
-      <c r="P18">
-        <v>2.8883999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.85</v>
-      </c>
-      <c r="C19">
-        <v>0.15</v>
-      </c>
-      <c r="D19">
-        <v>29.5</v>
-      </c>
-      <c r="E19">
-        <v>19</v>
-      </c>
-      <c r="F19">
-        <v>70.8</v>
-      </c>
-      <c r="G19">
-        <v>9.6</v>
-      </c>
-      <c r="H19">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="I19">
-        <v>104.2</v>
-      </c>
-      <c r="J19">
-        <v>2.1120000000000019</v>
-      </c>
-      <c r="K19">
-        <v>2.3205</v>
-      </c>
-      <c r="L19">
-        <v>9.6378000000000021</v>
-      </c>
-      <c r="M19">
-        <v>0.11330000000000003</v>
-      </c>
-      <c r="N19">
-        <v>27.085499999999996</v>
-      </c>
-      <c r="O19">
-        <v>49.61</v>
-      </c>
-      <c r="P19">
-        <v>0.34959999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0.5</v>
-      </c>
-      <c r="D20">
-        <v>31.6</v>
-      </c>
-      <c r="E20">
-        <v>22.9</v>
-      </c>
-      <c r="F20">
-        <v>26.6</v>
-      </c>
-      <c r="G20">
-        <v>6.4</v>
-      </c>
-      <c r="H20">
-        <v>8.26</v>
-      </c>
-      <c r="I20">
-        <v>54.4</v>
-      </c>
-      <c r="J20">
-        <v>0.31560000000000027</v>
-      </c>
-      <c r="K20">
-        <v>0.5887</v>
-      </c>
-      <c r="L20">
-        <v>1.9602000000000002</v>
-      </c>
-      <c r="M20">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="N20">
-        <v>10.658999999999999</v>
-      </c>
-      <c r="O20">
-        <v>23.182000000000002</v>
-      </c>
-      <c r="P20">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1.75</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>30.8</v>
-      </c>
-      <c r="E21">
-        <v>22.3</v>
-      </c>
-      <c r="F21">
-        <v>276</v>
-      </c>
-      <c r="G21">
-        <v>6.7</v>
-      </c>
-      <c r="H21">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="I21">
-        <v>400.4</v>
-      </c>
-      <c r="J21">
-        <v>0.15780000000000013</v>
-      </c>
-      <c r="K21">
-        <v>0.30450000000000005</v>
-      </c>
-      <c r="L21">
-        <v>2.0649000000000002</v>
-      </c>
-      <c r="M21">
-        <v>0.64349999999999996</v>
-      </c>
-      <c r="N21">
-        <v>8.8615999999999993</v>
-      </c>
-      <c r="O21">
-        <v>9.5150000000000006</v>
-      </c>
-      <c r="P21">
-        <v>0.83520000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1.25</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>22.7</v>
-      </c>
-      <c r="F22">
-        <v>289</v>
-      </c>
-      <c r="G22">
-        <v>6.4</v>
-      </c>
-      <c r="H22">
-        <v>8.08</v>
-      </c>
-      <c r="I22">
-        <v>370.8</v>
-      </c>
-      <c r="J22">
-        <v>0.43200000000000038</v>
-      </c>
-      <c r="K22">
-        <v>2.6593</v>
-      </c>
-      <c r="L22">
-        <v>18.361699999999999</v>
-      </c>
-      <c r="M22">
-        <v>0.61439999999999995</v>
-      </c>
-      <c r="N22">
-        <v>18.737400000000001</v>
-      </c>
-      <c r="O22">
-        <v>6.8179999999999925</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1.25</v>
-      </c>
-      <c r="C23">
-        <v>0.5</v>
-      </c>
-      <c r="D23">
-        <v>30.2</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23">
-        <v>12.8</v>
-      </c>
-      <c r="G23">
-        <v>10.4</v>
-      </c>
-      <c r="H23">
-        <v>8.18</v>
-      </c>
-      <c r="I23">
-        <v>22.1</v>
-      </c>
-      <c r="J23">
-        <v>3.5519999999999978</v>
-      </c>
-      <c r="K23">
-        <v>1.911</v>
-      </c>
-      <c r="L23">
-        <v>5.1711000000000009</v>
-      </c>
-      <c r="M23">
-        <v>1.03E-2</v>
-      </c>
-      <c r="N23">
-        <v>22.872199999999999</v>
-      </c>
-      <c r="O23">
-        <v>52.48</v>
-      </c>
-      <c r="P23">
-        <v>0.34959999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1.25</v>
-      </c>
-      <c r="C24">
-        <v>1.25</v>
-      </c>
-      <c r="D24">
-        <v>30.4</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G24">
-        <v>3.3</v>
-      </c>
-      <c r="H24">
-        <v>8.56</v>
-      </c>
-      <c r="I24">
-        <v>20.8</v>
-      </c>
-      <c r="J24">
-        <v>5.52</v>
-      </c>
-      <c r="K24">
-        <v>2.0300000000000002E-2</v>
-      </c>
-      <c r="L24">
-        <v>1.7287000000000006</v>
-      </c>
-      <c r="M24">
-        <v>0.34560000000000002</v>
-      </c>
-      <c r="N24">
-        <v>9.7052999999999994</v>
-      </c>
-      <c r="O24">
-        <v>9.89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1.25</v>
-      </c>
-      <c r="C25">
-        <v>0.15</v>
-      </c>
-      <c r="D25">
-        <v>30.2</v>
-      </c>
-      <c r="E25">
-        <v>20.9</v>
-      </c>
-      <c r="F25">
-        <v>81.3</v>
-      </c>
-      <c r="G25">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H25">
-        <v>8.01</v>
-      </c>
-      <c r="I25">
-        <v>100.66</v>
-      </c>
-      <c r="J25">
-        <v>6.3360000000000021</v>
-      </c>
-      <c r="K25">
-        <v>6.0899999999999989E-2</v>
-      </c>
-      <c r="L25">
-        <v>1.7870999999999999</v>
-      </c>
-      <c r="M25">
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="N25">
-        <v>6.6758999999999995</v>
-      </c>
-      <c r="O25">
-        <v>12.175000000000001</v>
-      </c>
-      <c r="P25">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1.5</v>
-      </c>
-      <c r="C26">
-        <v>0.1</v>
-      </c>
-      <c r="D26">
-        <v>30.4</v>
-      </c>
-      <c r="E26">
-        <v>17</v>
-      </c>
-      <c r="F26">
-        <v>193</v>
-      </c>
-      <c r="G26">
-        <v>6.9</v>
-      </c>
-      <c r="H26">
-        <v>7.95</v>
-      </c>
-      <c r="I26">
-        <v>233.9</v>
-      </c>
-      <c r="J26">
-        <v>1.92</v>
-      </c>
-      <c r="K26">
-        <v>1.5225</v>
-      </c>
-      <c r="L26">
-        <v>4.9124999999999996</v>
-      </c>
-      <c r="M26">
-        <v>0.59519999999999995</v>
-      </c>
-      <c r="N26">
-        <v>14.361600000000001</v>
-      </c>
-      <c r="O26">
-        <v>51.865500000000004</v>
-      </c>
-      <c r="P26">
-        <v>9.9700000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1.5</v>
-      </c>
-      <c r="C27">
-        <v>0.1</v>
-      </c>
-      <c r="D27">
-        <v>30.3</v>
-      </c>
-      <c r="E27">
-        <v>14.4</v>
-      </c>
-      <c r="F27">
-        <v>230</v>
-      </c>
-      <c r="G27">
-        <v>7.4</v>
-      </c>
-      <c r="H27">
-        <v>7.9</v>
-      </c>
-      <c r="I27">
-        <v>277.39999999999998</v>
-      </c>
-      <c r="J27">
-        <v>3.3120000000000003</v>
-      </c>
-      <c r="K27">
-        <v>1.1165</v>
-      </c>
-      <c r="L27">
-        <v>6.9355000000000011</v>
-      </c>
-      <c r="M27">
-        <v>0.71039999999999992</v>
-      </c>
-      <c r="N27">
-        <v>14.922600000000001</v>
-      </c>
-      <c r="O27">
-        <v>13.148999999999999</v>
-      </c>
-      <c r="P27">
-        <v>10.32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0.75</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>31.5</v>
-      </c>
-      <c r="E28">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>336</v>
-      </c>
-      <c r="G28">
-        <v>6.1</v>
-      </c>
-      <c r="H28">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="I28">
-        <v>451.9</v>
-      </c>
-      <c r="K28">
-        <v>2.08</v>
-      </c>
-      <c r="L28">
-        <v>7.6370000000000005</v>
-      </c>
-      <c r="M28">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="N28">
-        <v>28.7</v>
-      </c>
-      <c r="O28">
-        <v>26.5625</v>
-      </c>
-      <c r="P28">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.15</v>
-      </c>
-      <c r="D29">
-        <v>30.9</v>
-      </c>
-      <c r="E29">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F29">
-        <v>95.5</v>
-      </c>
-      <c r="G29">
-        <v>5.3</v>
-      </c>
-      <c r="H29">
-        <v>8.17</v>
-      </c>
-      <c r="I29">
-        <v>178.52</v>
-      </c>
-      <c r="J29">
-        <v>2.6879999999999997</v>
-      </c>
-      <c r="K29">
-        <v>0.10149999999999999</v>
-      </c>
-      <c r="L29">
-        <v>1.9115</v>
-      </c>
-      <c r="M29">
-        <v>0.432</v>
-      </c>
-      <c r="N29">
-        <v>8.5832999999999995</v>
-      </c>
-      <c r="O29">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="P29">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0.1</v>
-      </c>
-      <c r="D30">
-        <v>30.5</v>
-      </c>
-      <c r="E30">
-        <v>15.8</v>
-      </c>
-      <c r="F30">
-        <v>77</v>
-      </c>
-      <c r="G30">
-        <v>6.1</v>
-      </c>
-      <c r="H30">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I30">
-        <v>107.88</v>
-      </c>
-      <c r="J30">
-        <v>2.7359999999999998</v>
-      </c>
-      <c r="K30">
-        <v>4.0600000000000004E-2</v>
-      </c>
-      <c r="L30">
-        <v>1.6094000000000006</v>
-      </c>
-      <c r="M30">
-        <v>0.42239999999999994</v>
-      </c>
-      <c r="N30">
-        <v>8.8077000000000005</v>
-      </c>
-      <c r="O30">
-        <v>20.260000000000002</v>
-      </c>
-      <c r="P30">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1.25</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>30.5</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>311</v>
-      </c>
-      <c r="G31">
-        <v>5.9</v>
-      </c>
-      <c r="H31">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="I31">
-        <v>1139.1600000000001</v>
-      </c>
-      <c r="K31">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L31">
-        <v>2.7409999999999997</v>
-      </c>
-      <c r="M31">
-        <v>0.11760000000000001</v>
-      </c>
-      <c r="N31">
-        <v>25.864999999999998</v>
-      </c>
-      <c r="O31">
-        <v>12.5375</v>
-      </c>
-      <c r="P31">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0.75</v>
-      </c>
-      <c r="C32">
-        <v>0.15</v>
-      </c>
-      <c r="D32">
-        <v>30.7</v>
-      </c>
-      <c r="E32">
-        <v>11</v>
-      </c>
-      <c r="F32">
-        <v>78.5</v>
-      </c>
-      <c r="G32">
-        <v>7.5</v>
-      </c>
-      <c r="H32">
-        <v>8.15</v>
-      </c>
-      <c r="I32">
-        <v>123.4</v>
-      </c>
-      <c r="K32">
-        <v>1.52</v>
-      </c>
-      <c r="L32">
-        <v>2.3340000000000001</v>
-      </c>
-      <c r="M32">
-        <v>0.11760000000000001</v>
-      </c>
-      <c r="N32">
-        <v>20.12</v>
-      </c>
-      <c r="O32">
-        <v>9.35</v>
-      </c>
-      <c r="P32">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0.75</v>
-      </c>
-      <c r="C33">
-        <v>0.1</v>
-      </c>
-      <c r="D33">
-        <v>31</v>
-      </c>
-      <c r="E33">
-        <v>13</v>
-      </c>
-      <c r="F33">
-        <v>62.8</v>
-      </c>
-      <c r="G33">
-        <v>5.6</v>
-      </c>
-      <c r="H33">
-        <v>8.39</v>
-      </c>
-      <c r="I33">
-        <v>76.48</v>
-      </c>
-      <c r="K33">
-        <v>0.34</v>
-      </c>
-      <c r="L33">
-        <v>3.6370000000000005</v>
-      </c>
-      <c r="M33">
-        <v>0.20579999999999998</v>
-      </c>
-      <c r="N33">
-        <v>19.77</v>
-      </c>
-      <c r="O33">
-        <v>30.387499999999999</v>
-      </c>
-      <c r="P33">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>0.1</v>
-      </c>
-      <c r="D34">
-        <v>30.7</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>71.7</v>
-      </c>
-      <c r="G34">
-        <v>3.2</v>
-      </c>
-      <c r="H34">
-        <v>7.68</v>
-      </c>
-      <c r="I34">
-        <v>66.2</v>
-      </c>
-      <c r="K34">
-        <v>1.58</v>
-      </c>
-      <c r="L34">
-        <v>22.241</v>
-      </c>
-      <c r="M34">
-        <v>0.55859999999999999</v>
-      </c>
-      <c r="N34">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="O34">
-        <v>45.262500000000003</v>
-      </c>
-      <c r="P34">
-        <v>13.44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>0.25</v>
-      </c>
-      <c r="D35">
-        <v>28.5</v>
-      </c>
-      <c r="E35">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F35">
-        <v>21.3</v>
-      </c>
-      <c r="G35">
-        <v>7.7</v>
-      </c>
-      <c r="H35">
-        <v>7.94</v>
-      </c>
-      <c r="I35">
-        <v>38.58</v>
-      </c>
-      <c r="J35">
-        <v>5.04</v>
-      </c>
-      <c r="K35">
-        <v>1.4429999999999998</v>
-      </c>
-      <c r="L35">
-        <v>1.9239000000000004</v>
-      </c>
-      <c r="M35">
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="N35">
-        <v>22.825899999999997</v>
-      </c>
-      <c r="O35">
-        <v>37.31</v>
-      </c>
-      <c r="P35">
-        <v>0.37719999999999992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0.1</v>
-      </c>
-      <c r="D36">
-        <v>28.5</v>
-      </c>
-      <c r="E36">
-        <v>21</v>
-      </c>
-      <c r="F36">
-        <v>66</v>
-      </c>
-      <c r="G36">
-        <v>3.5</v>
-      </c>
-      <c r="H36">
-        <v>8.15</v>
-      </c>
-      <c r="I36">
-        <v>121.6</v>
-      </c>
-      <c r="K36">
-        <v>2.2814999999999999</v>
-      </c>
-      <c r="L36">
-        <v>3.8718000000000008</v>
-      </c>
-      <c r="M36">
-        <v>0.10300000000000001</v>
-      </c>
-      <c r="N36">
-        <v>23.057399999999998</v>
-      </c>
-      <c r="O36">
-        <v>42.23</v>
-      </c>
-      <c r="P36">
-        <v>0.34959999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2.25</v>
-      </c>
-      <c r="C37">
-        <v>0.1</v>
-      </c>
-      <c r="D37">
-        <v>28.9</v>
-      </c>
-      <c r="E37">
-        <v>22.7</v>
-      </c>
-      <c r="F37">
-        <v>83.2</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>8.14</v>
-      </c>
-      <c r="I37">
-        <v>126.76</v>
-      </c>
-      <c r="K37">
-        <v>2.5545</v>
-      </c>
-      <c r="L37">
-        <v>5.0694000000000008</v>
-      </c>
-      <c r="M37">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="N37">
-        <v>23.427799999999998</v>
-      </c>
-      <c r="O37">
-        <v>51.25</v>
-      </c>
-      <c r="P37">
-        <v>0.44159999999999999</v>
       </c>
     </row>
   </sheetData>
